--- a/자료조사_CJR.xlsx
+++ b/자료조사_CJR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="482">
   <si>
     <t>함수이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,13 +364,2328 @@
   </si>
   <si>
     <t>http://neosrtos.com/docs/posix_api/stdint.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;stdlib.h&gt;</t>
+  </si>
+  <si>
+    <t>&lt;string.h&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tgmath.h&gt;</t>
+  </si>
+  <si>
+    <t>&lt;time.h&gt;</t>
+  </si>
+  <si>
+    <t>&lt;wchar.h&gt;</t>
+  </si>
+  <si>
+    <t>&lt;wctype.h&gt;</t>
+  </si>
+  <si>
+    <t>&lt;stdlib.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdlib.h는 C 언어의 표준 라이브러리로, 문자열 변환, 의사 난수 생성, 동적 메모리 관리 등의 함수들을 포함하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_EXIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void exit( int status);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void _EXIT(int status);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스레드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시킨다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스레드의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전달된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 함수는 호출한 스레드를 종료 시킨다. 인자 status은 호출한 스레드의 종료 값으로 시스템에 전달된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abort </t>
+  </si>
+  <si>
+    <r>
+      <t>void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>abort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>void)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; </t>
+    </r>
+  </si>
+  <si>
+    <t>이 함수는 호출한 스레드에 SIGABRT 시그널을 발생시킨다. 시그널을 수신한 스레드는 수행이 종료된다.
+이 함수는 raise()가 SIGABRT를 발생시키는 것과 같다.
+만약 NEOS가 시그널 컴포넌트를 포함하고 있지 않다면, 이 함수는 다음을 호출하는 것과 같이 동작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>atexit</t>
+  </si>
+  <si>
+    <t>atof</t>
+  </si>
+  <si>
+    <t>atoi</t>
+  </si>
+  <si>
+    <t>atol</t>
+  </si>
+  <si>
+    <t>atoll</t>
+  </si>
+  <si>
+    <t>bsearch</t>
+  </si>
+  <si>
+    <t>calloc</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>getenv</t>
+  </si>
+  <si>
+    <t>initstate</t>
+  </si>
+  <si>
+    <t>labs</t>
+  </si>
+  <si>
+    <t>llabs</t>
+  </si>
+  <si>
+    <t>mkstemp</t>
+  </si>
+  <si>
+    <t>posix_memalign</t>
+  </si>
+  <si>
+    <t>putenv</t>
+  </si>
+  <si>
+    <t>qsort</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>realloc</t>
+  </si>
+  <si>
+    <t>setenv</t>
+  </si>
+  <si>
+    <t>setstate</t>
+  </si>
+  <si>
+    <t>srandom</t>
+  </si>
+  <si>
+    <t>strtof</t>
+  </si>
+  <si>
+    <t>strtol</t>
+  </si>
+  <si>
+    <t>strtold</t>
+  </si>
+  <si>
+    <t>strtoll</t>
+  </si>
+  <si>
+    <t>strtoul</t>
+  </si>
+  <si>
+    <t>strtoull</t>
+  </si>
+  <si>
+    <t>unsetenv</t>
+  </si>
+  <si>
+    <t>int abs( int i);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수의 절대값을 반환한다.
+이 함수는 정수 i의 절대값을 계산하여 반환하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int atexit( void (* func)(void));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 종료시 실행될 함수를 등록한다
+이 함수는 func가 가리키는 함수(정상적인 프로그램 종료시 인자 없이 호출 됨)를 등록 한다. 정상적인 프로그램 종료시 atexit()함수에 의해 등록된 모든 함수중 이전에 등록되고 그 당시에 이미 실행 되어진 함수는 제외하고 등록 순서의 반대 순서로 호출 된다. exit() 호출 또는 main()로부터의 반환시 정상 종료가 발생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double atof( const char *str);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 배정밀도 수로 변환한다.
+이 함수는 문자열 str을 double형의 배정밀도 수로 변환한다. 이 함수는 다음 함수 호출과 같다.
+strtod(str, (char **)NULL);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int atoi( const char *str);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 정수로 변환한다.
+이 함수는 문자열 str를 int형의 정수 값으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long atol( const char * str);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 long형 정수로 변환.
+atol(str)은 다음과 동등하다:
+오류 처리가 다를 수 있는 것은 제외하면 strtol(str,(char **)NULL,10)와 동등하다.
+만약, 값이 없다면 이 함수의 행동은 분명하지 않게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long atoll( const char * nptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 long형 정수로 변환.
+atoll(nptr)은 다음과 동등하다:
+오류 처리가 다를 수 있는 것은 제외하면 strtoll (nptr,(char **)NULL,10)와 동등하다.
+만약, 값이 없다면 이 함수의 행동은 분명하지 않게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void * bsearch( const void *key,  const void *base,  size_t nel,  size_t width ,  int (*compar) ( const void *,  const void * ));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬된 테이블의 이진 검색
+이 함수는 base가 가리키는 최초의 요소에서 key가 가리키는 객체와 매칭되는 요소에 대해 nel 개를 객체의 배열을 검색 한다. 배열에서의 각 요소의 크기는 width에 의해 정의된다. 만약, nel 인자가 0의 값을 갖는다면, compar가 가리키는 비교 함수는 호출 되지 않고, 매칭 되는 요소를 찾지 못 할 것이다.
+compar함수가 가리키는 비교 함수는 key 객체와 그 다음으로 오는 배열 요소 이렇게 두 개의 인자를 사용하여 호출된다.
+응용은 compar가 가리키는 비교 함수가 배열의 요소를 수정하지 않다는 것을 보증한다. Implementation은 비교 함수를 호출한 사이에 배열의 요소를 재배치 할 수도 있지만, 각각의 어떠한 요소의 내용을 수정하지는 않는다.
+Implementation은 첫 번째 인자가 항상 key 포인터인것을 보증한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void * calloc( size_t nelem,  size_t elsize);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 할당기
+이 함수는 배열에서 각 요소들의 크기가 elsize 바이트인 nelem 개의 사용되지 않는 영역을 할당한다. 그 영역의 모든 비트들은 0으로 초기화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_t div( int numer,  int denom);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 나눗셈의 몫과 나머지 연산
+이 함수는 분자 numer를 분모 denom로 나눗셈 하여 몫과 나머지를 구한다. 만약 나눗셈이 정확하지 않다면 그 몫은 대수에 의한 몫보다 작은 정수가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void free( void *ptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할당된 메모리 해제
+이 함수는 ptr이 가리키는 공간의 할당을 해제한다. 만약, ptr 이 null 포인터라면 아무런 작업도 하지 않는다. 다른 상황에서, 인자가 malloc()가 할당하여 반환한 포인터와 일치하지 않거나, free() 또는 realloc()에 의해 할당 해제된 공간이면, 알 수 없는 일이 발생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *getenv( const char *name);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 변수로부터 값 획득.
+이 함수는 호출하는 프로세스의 환경을 찾는데, 만약 환경 변수 이름이 이미 존재 한다면, 환경 변수의 값 포인터를 반환한다. 만약 명시된 환경변수를 찾을 수 없다면, null 포인터가 반환된다.
+반환된 문자열 포인터는 그 다음으로 호출되는 getenv(), setenv(), unsetenv() 또는 (지원된다면..) putenv()들에 의해 무효화 되거나 문자열 내용이 덮어쓰기 된다.
+이 함수는 스레드-세이프를 필요로 하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *initstate( unsigned seed,  char * state,  size_t size);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사 난수 함수
+이 함수는 범위가 0 ~ 2^31-1인 의사난수를 반환하고, 배열 크기가 32 long형 정수 기본 상태를 사용하는 비선형 덧셈 피드백 난수 발생기를 사용한다. 이 의사난수 발생기의 주기는 대략 16 x (2^31-1)이다. 상태 배열의 크기는 의사난수 발생기의 주기를 결정한다. 상태 배열 크기의 증가는 주기를 증가시킨다.
+상태 정보가 256 바이트인 의사난수 발생기의 주기는 2^69보다 커야한다..
+initstate() 와 setstate() 함수들은 난수 발생기의 재시작과 변경을 처리한다. initstate() 함수는 나중에 사용되기 위해 초기화 되고, 상태 인자의 의해 상태 배열이 가리켜지는 것을 허락한다. 상태 배열을 크기를 여러 바이트 내에서 정의하는 size인자는 사용할 난수 발생기의 타입을 결정하기 위해 initstate()에 의해 사용된다; 더 큰 상태 배열은 더 많은 랜덤 숫자들을 갖는다. 상태 정보의 합을 위한 값들은 8, 32, 64, 128 그리고 256 바이트이다. 8바이트보다 큰 값들은 이들 값들 중 가장 근접한 아래 값으로 되게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>long </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>labs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long형 정수의 절대값 반환
+이 함수는 long형 정수의 i의 절대값을 계산한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldiv_t ldiv( long numer,  long denom);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long형 정수 나눗셈의 몫과 나머지 연산
+이 함수는 분자 numer를 분모 denom로 나눗셈 하여 몫과 나머지를 구한다. 만약 나눗셈이 정확하지 않다면 그 몫은 대수에 의한 몫보다 작은 long형 정수가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long llabs( long long i);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long형 정수의 절대값 반환
+이 함수는 long long형 정수의 i의 절대값을 계산한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lldiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lldiv_t lldiv( long long numer,  long long denom);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long형 정수 나눗셈의 몫과 나머지 연산
+이 함수는 분자 numer를 분모 denom로 나눗셈 하여 몫과 나머지를 구한다. 만약 나눗셈이 정확하지 않다면 그 몫은 대수에 의한 몫보다 작은 long 또는 long long형 정수가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malloc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void *malloc( size_t size);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 할당
+이 함수는 size 바이트 만큼 메모리를 할당한다. 할당된 메모리는 초기화되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int mkstemp( char *template);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 내의 중복되지 않는 파일를 생성한다.
+이 함수는 인자 template의 파일 페턴을 고유 파일 이름으로 변환하고 파일을 읽기/쓰기로 생성하고 생성된 파일 기술자를 반환한다. 파일 이름 패턴의 문자열 template은 파일 이름과 여섯 개의 'X'로 끝나는 문자열로 표현된다. 이 함수는 'X'를 파일 이름으로 변환하여 파일을 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int posix_memalign( void **memptr,  size_t alignment,  size_t size);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬된 메모리 할당
+이 함수는 요청된 size 바이트를 alignment에 정렬된 상태의 메모리를 할당하여 반환한다. 할당된 메모리는 memptr으로 반환된다.
+할당된 메모리는 free()함수를 사용하여 반환된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int putenv( char *string);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수에 값 추가 및 변경.
+이 함수는 string 인자를 사용하여 환경변수 값을 설정한다. string 인자는 "name = value"형태의 문자열을 가리켜야 한다. 환경변수의 이름이 없는 경우 환경변수를 추가하고 이미 존재하는 경우에는 값을 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void qsort( void * base,  size_t nel,  size_t width,  int( * compar) (constvoid *,  const void * ));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분류
+이 함수는 nel 오브젝트 배열을 분류하는데 base는 이 배열의 첫 번째 원소를 가리킨다. 각 오브젝트의 바이트 단위 크기는 with에 의해 지정된다. 만약 nel 인자가 0이라면, compar가 가리키는 비교 함수는 호출되지 않을것이다.배열의 내용은 비교 함수에 따라 오름차순으로 분류된다. compar 는 비교 함수에 대한 포인터이다. 비교 함수는 비교 중인 요소를 가리키는 두 개의 인자를 사용하여 호출한다. 응용프로그램은 첫 번째 인자 두 번째 인자보다 작거나, 같거나, 크다고 간주되는 경우 각각 ‘0’보다 작거나, 같거나, 큰 정수를 반환하는것을 보증 한다. 두 개의 멤버가 동등할지라도 배열내 순서는 정해지지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int rand( void);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사 난수 발생기
+이 함수는 최소 2^32 주기동안에 0 ~ RAND_MAX 범위내의 의사난수 정수의 시퀀스를 산출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long random( void);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사 난수 함수
+이 함수는 범위가 0 ~ 2^31-1인 의사난수를 반환하고, 배열 크기가 32 long형 정수 기본 상태를 사용하는 비선형 덧셈 피드백 난수 발생기를 사용한다. 이 의사난수 발생기의 주기는 대략 16 x (2^31-1)이다. 상태 배열의 크기는 의사난수 발생기의 주기를 결정한다. 상태 배열 크기의 증가는 주기를 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void *realloc( void * ptr,  size_t size);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 재할당
+이 함수는 ptr이 가리키는 객체의 메모리를 해제하고, size 가 지정한 크기를 갖는 새 객체를 할당하고 그 포인터를 반환한다.새 객체의 내용은 이전에 해제된 객체와 동일하다. 이전 객체의 사이즈를 넘은 새 객체의 어떠한 바이트도 확실하지 않은 값을 갖고 있다. 만약 공간 할당이 되지 않다면, 그 객체는 변경되지 않고 유지된다.
+ptr이 null포인터이면 realloc()은 지정된 size에 대한 malloc()과 동등하다.
+만약 ptr이 calloc(), malloc(), 또는 realloc()들에 의해 반환된 포인터와 같지 않거나, 그 공간이 free() 또는 realloc()에 의해 미리 메모리가 해제되지 않았다면, 예기치 않은 결과가 발생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int setenv( const char *envname,  const char *envval,  int overwrite);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수 추가 및 변경.
+이 함수는 호출하는 프로세스의 환경내에 변수를 추가 또는 업데이트 한다. envname 인자는 추가되거나 변경될 환경 변수의 이름을 포함하는 문자열을 가리킨다. 환경 변수는 envval이 가리키는 값으로 설정된다. 이 함수는 envname가 "="을 포함하는 문자열을 가리킨다면 실패한다. 만약, 환경 변수가 envname에 의해 이미 존재하는 이름이고, overwrite 의 값은 0이 아니면, 이 함수는 성공을 반환하고, 환경변수는 업데이트 된다. 만약 환경 변수가 envname에 의해 이미 존재하는 이름이고, overwrite 의 값은 0이면, 이 함수는 성공을 반환하고, 환경변수는 변경되지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *setstate( char *state);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사 난수 기능
+이 함수는 상태가 한번 초기화 되면 상태 배열들 사이에서의 전환을 허락한다. state 인자에 의해 정의된 배열은 initstate() 가 호출되어 지거나 setstate()가 다시 호출되어지기 전까지 의사난수 발생을 위해 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사난수 발생기
+이 함수는 뒤이어 호출 되는 rand에 의해 반환될 의사난수의 새로운 시퀀스를 위해 seed 인자를 사용한다. 만약, srand()가 같은 seed로 호출되면 의사난수의 순서는 반복된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void srand( unsigned seed);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void srandom( unsigned seed);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사난수 기능
+이 함수는 범위가 0 ~ 2^31-1인 의사난수를 반환하고, 배열 크기가 32 long형 정수 기본 상태를 사용하는 비선형 덧셈 피드백 난수 발생기를 사용한다. 이 의사난수 발생기의 주기는 대략 16 x (2^31-1)이다. 상태 배열의 크기는 의사난수 발생기의 주기를 결정한다. 상태 배열 크기의 증가는 주기를 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float strtof( const char *restrict nptr,  char **restrict endptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 배정밀도의 수로 변환.
+이 함수는 nptr가 가리키는 문자열의 처음 부분을 float형으로 변환한다. 첫째, 이 함수는 입력 문자열을 세 부분으로 분리한다:
+1. 공백문자로 배열한 첫 글자
+2. floating-point 상수 또는 무한대 또는 NaN으로 해석되는 subject sequence.
+3. 하나의 마지막 문자 또는 입력 문자열의 끝에 NUL 문자를 포함하는 인식되지 않은 문자들.
+이 함수는 subject sequence를 floating-point 숫자로 변경하는것을 시도하고 결과를 반환한다.
+subject sequence의 예상된 폼은 다음 중 하나인 '+' 또는 '-' 기호이다:
+- 비어있지 않은 10진수의 순서는 선택적으로 기수 문자를 포함; 선택적으로 'e' 또는 'E' 문자를 포함하는 지수 부분은 '+' 또는 '-' 문자 그리고 하나 또는 그 이상의 10진수가 따라온다.
+- 0x 또는 0X처럼 선택적으로 기수 문자를 포함하는 16진수 다음으로 'p' 또는 'P'로 구성되는 지수 부분 다음 선택적인 '+'또는 '-' 그리고 하나 또는 그 이상의 10진수가 따라온다.
+- INF의 하나 또는 무한대일 경우는 무시.
+- NAN 또는 NAN(n-Char-Sequenceopt)에서 NAN 부분의 무시되는 경우:
+- n-Char-sequence : 숫자, non숫자, n-char-sequence 숫자, n-char-sequence non숫자
+subject sequence는 입력 문자열의 가장 긴 첫 글자의 연속으로 정의 되고, 기대됐던 형태의 non-white-space 문자로 시작된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long strtol( const char *restrict str,  char **restrict endptr,  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 long형 정수로 변환.
+이 함수는 str가 가리키는 문자열을 long형으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long double strtold( const char *restrict nptr,  char **restrict endptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 배정밀도의 수로 변환.
+이 함수는 nptr가 가리키는 문자열의 처음 부분을 long double형으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long strtoll( const char *restrict str,  char **restrict endptr,  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 long형 정수로 변환.
+이 함수는 str가 가리키는 문자열의 처음 부분을 long long형으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long strtoul( const char *restrict str,  char **restrict endptr,  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 unsigned long 타입으로 변환.
+이 함수는 str가 가리키는 문자열의 처음 부분을 unsigned long형으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long long strtoull( const char *restrict str,  char **restrict ndptr,
+  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 unsigned long 타입으로 변환.
+이 함수는 str가 가리키는 문자열의 처음 부분을 unsigned long long형으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int unsetenv( const char * name);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수 제거.
+이 함수는 호출 프로세스의 환경으로부터 환경 변수를 제거한다.문자열을 가리키는 name 인자는 제거되기 위한 환경 변수의 이름이다. 그 인자는 '='문자를 포함하지 않는다. 만약, 그 이름 변수가 현재 환경에 존재하지 않으면 환경 변수는 변경되지 않으며 이 함수는 성공적으로 완료된것으로 간주한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;time.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 파일 &lt;time.h&gt; 시간과 관련된 자료형, 상수, 그리고 함수들을 정의한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asctime</t>
+  </si>
+  <si>
+    <t>asctime_r</t>
+  </si>
+  <si>
+    <t>clock_getres</t>
+  </si>
+  <si>
+    <t>clock_gettime</t>
+  </si>
+  <si>
+    <t>clock_nanosleep</t>
+  </si>
+  <si>
+    <t>clock_settime</t>
+  </si>
+  <si>
+    <t>ctime</t>
+  </si>
+  <si>
+    <t>ctime_r</t>
+  </si>
+  <si>
+    <t>difftime</t>
+  </si>
+  <si>
+    <t>gmtime</t>
+  </si>
+  <si>
+    <t>gmtime_r</t>
+  </si>
+  <si>
+    <t>localtime</t>
+  </si>
+  <si>
+    <t>localtime_r</t>
+  </si>
+  <si>
+    <t>mktime</t>
+  </si>
+  <si>
+    <t>nanosleep</t>
+  </si>
+  <si>
+    <t>strftime</t>
+  </si>
+  <si>
+    <t>strptime</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timer_create</t>
+  </si>
+  <si>
+    <t>timer_delete</t>
+  </si>
+  <si>
+    <t>timer_gettime</t>
+  </si>
+  <si>
+    <t>timer_getoverrun</t>
+  </si>
+  <si>
+    <t>timer_settime</t>
+  </si>
+  <si>
+    <t>char *asctime( const struct tm *timeptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜와 시간을 문자열로 변환한다.
+이 함수는 timeptr이 지정하는 시간 값을 문자열로 변환하여 문자열을 반환한다. 문자열의 변환은 다음과 같이 변환된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *asctime_r( const struct tm *timeptr,  char *restrict buf);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜와 시간을 문자열로 변환한다.
+이 함수는 timeptr이 지정하는 시간 값을 문자열로 변환하여 buf(최소 26 바이트)에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int clock_getres( clockid_t clock_id,  struct timespec *res);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클록의 분해능력을 얻는다.
+이 함수는 지정된 클록 clock_id의 클록 분해능력 값을 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int clock_gettime( clockid_t clock_id,  struct timespec *tp);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클록의 분해능력을 얻는다.
+이 함수는 클록 clock_id의 현재 시간을 tp에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int clock_nanosleep( clockid_t clock_id,  int flags,  const struct timespec *rqtp,  struct timespec *rmtp);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고해상도 대기를 수행한다.
+이 함수는 호출한 스레드의 실행을 요청된 대기 시간에 따라 다음과 같이 정지 시킨다.
+만약 TIMER_ABSTIME가 설정되었다면, 대기 시간은 rqtp을 절대 시간으로 하여 실행을 정지시킨다.
+만약 TIMER_ABSTIME가 설정되 않았다면, 대기 시간은 rqtp을 시간 간격으로 하여 실행을 정지시킨다.
+만약 시그널이 수신된다면, 시크널 처리 함수를 호출하고 반환되거나, 스레드가 종료된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int clock_settime( clockid_t clock_id,  const struct timespec *tp);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클록을 설정한다.
+이 함수는 호출한 스레드의 실행을 요청된 대기 시간에 따라 다음과 같이 정지 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *ctime( const time_t *timer);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 문자열로 변환한다.
+이 함수는 시간 값 timer을 문자열로 변환하여 문자열을 반환한다.
+이 함수는 다음과 같다.
+asctime(localtime(timer));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>char *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctime_r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const time_t *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>timer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, char *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>buf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 문자열로 변환한다.
+이 함수는 시간 값 timer을 문자열로 변환하여 buf에 저장한다.
+이 함수는 다음과 같다.
+asctime_r(localtime(timer), buf);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double difftime( time_t time1,  time_t time2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 시간 값의 차를 계산한다.
+이 함수는 시간 값의 차 time1 - time2을 계산한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct tm *gmtime( const time_t *restrict timer);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 UTC 시간으로 변환한다.
+이 함수는 시스템 시간 값 timer을 UTC 날짜와 시간으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct tm *gmtime_r( const time_t *restrict timer,  struct tm *restrict esult);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 UTC 시간으로 변환한다.
+이 함수는 시스템 시간 값 timer을 UTC 날짜와 시간으로 변환하여 result에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct tm *localtime( const time_t *restrict timer);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 지역 시간으로 변환한다.
+이 함수는 시스템 시간 값 timer을 지역 시간으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct tm *localtime_r( const time_t *restrict timer,  struct tm *restrict result);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 지역 시간으로 변환한다.
+이 함수는 시스템 시간 값 timer을 지역 시간으로 변환하여 result에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_t mktime( struct tm *timeptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜와 시간을 초단위 시간으로 변환한다.
+이 함수는 날짜와 시간 값을 초단위의 시간으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int nanosleep( const struct timespec *rqtp,  struct timespec *rmtp);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고해상도 수행을 대기 한다.
+이 함수는 호출한 스레드의 수행을 요청된 시간 rqtp이 경과되거나, 시그널을 수신할 때까지 수행을 정지 시킨다. 수행 정지 시간은 요청된 시간보다 길 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t strftime( char *restrict s,  size_t maxsize,  const char *restrict format,  const struct tm *restrict timeptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 포멧을 가지고 문자열로 변환한다.
+이 함수는 날짜와 시간 값을 format 포멧으로 변환하여 버퍼 &gt;s에 저장한다.
+다음의 변환을 지원한다.
+%a
+주간 요약 이름. [tm_wday].
+%A
+주간 전체 이름. [tm_wday].
+%b
+월 요약 이름. [tm_mon].
+%B
+월 전체 이름. [tm_mon].
+%c
+현재 로케일의 날짜와 시간 표현.
+%C
+100으로 나눠지는 년. [tm_year]
+%d
+월별 날자[0,31]. [tm_mday]
+%D
+%m / %d / %y. [tm_mon, tm_mday, tm_year]
+%e
+%m / %d / %y. [tm_mon, tm_mday, tm_year]
+%F
+%Y - %m - %d. [tm_year, tm_mon, tm_mday]
+%g
+주단위 값 [00,99].
+%G
+주단위 값 [ex, 1988]
+%h
+%b
+%H
+24시간 시간 [00,23].
+%I
+12시간 시간 [01,12].
+%j
+년 단위 날자 [001,366].
+%m
+월 값 [01,12].
+%M
+분 [00,59].
+%n
+줄 바꿈.
+%p
+로케일에 따른 a.m, p.m 표현.
+%r
+a.m, p.m 표현.
+%R
+24시간 표현 (%H: %M)
+%S
+초 [00, 60]
+%t
+tab
+%T
+시간 (%H : %M : %S)
+%u
+주중 날수 [1,7]
+%U
+년중 주 날수 [00,53]
+%w
+주중 날수 [0,6]
+%y
+2자릿수 년 [00,99]
+%z
+UTC 오프셋.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *strptime( char *restrict s,  const char *restrict format,  struct tm *tm);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜와 시간을 변환한다.
+이 함수는 문자열을 format 포멧으로 변환하여 버퍼 &gt;tm에 저장한다.
+다음의 변환을 지원한다.
+%a
+주간 요약 이름. [tm_wday].
+%A
+주간 전체 이름. [tm_wday].
+%b
+월 요약 이름. [tm_mon].
+%B
+월 전체 이름. [tm_mon].
+%c
+현재 로케일의 날짜와 시간 표현.
+%C
+100으로 나눠지는 년. [tm_year]
+%d
+월별 날자[0,31]. [tm_mday]
+%D
+%m / %d / %y. [tm_mon, tm_mday, tm_year]
+%e
+%m / %d / %y. [tm_mon, tm_mday, tm_year]
+%F
+%Y - %m - %d. [tm_year, tm_mon, tm_mday]
+%g
+주단위 값 [00,99].
+%G
+주단위 값 [ex, 1988]
+%h
+%b
+%H
+24시간 시간 [00,23].
+%I
+12시간 시간 [01,12].
+%j
+년 단위 날자 [001,366].
+%m
+월 값 [01,12].
+%M
+분 [00,59].
+%n
+줄 바꿈.
+%p
+로케일에 따른 a.m, p.m 표현.
+%r
+a.m, p.m 표현.
+%R
+24시간 표현 (%H: %M)
+%S
+초 [00, 60]
+%t
+tab
+%T
+시간 (%H : %M : %S)
+%u
+주중 날수 [1,7]
+%U
+년중 주 날수 [00,53]
+%w
+주중 날수 [0,6]
+%y
+2자릿수 년 [00,99]
+%z
+UTC 오프셋.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_t time( time *tloc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 값을 얻는다.
+이 함수는 현재 시간 값을 반환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int timer_create( clockid_t clockid,  struct sigevent *restrict evp,  timer_t *restrict timerid);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스의 타이머를 생성한다.
+이 함수는 지정한 클록을 사용하여 타이머를 생성한다. 생성된 타이머는 timerid에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int timer_delete( timer_t timerid);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머를 삭제한다.
+이 함수는 timer_create() 함수가 생성한 타이머를 제거한다. 만약 타이머 timerid가 동작 중이라면, 타이머를 정지시키고 제거한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int timer_gettime( timer_t timerid,  struct itimerspec *value);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남아있는 시간을 반환한다.
+이 함수는 타이머의 남아있는 시간을 얻어 value에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int timer_getoverrun( timer_t timerid);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버런 값을 반환한다.
+타이머 경과 시그널을 수신하였을 때, 이 함수는 타이머 만료 오버런 값을 반환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int timer_settime( timer_t timerid,  int flags,  struct itimerspec *value,  struct itimerspec *ovalue);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머의 만료 시간을 설정한다.
+이 함수는 타이머 timerid의 만료 시간을 설정한다.
+만약 flags가 TIMER_ABSTIME라면, 설정되는 시간은 절대 값으로 계산한다. 그렇지 않다면 시간 간격으로 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;wctype.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 파일 &lt;wctype.h&gt;은 로케일에 따른 확장 문자의 타입을 확인하기 위한 자료형, 상수, 그리고 함수들을 정의한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iswalnum</t>
+  </si>
+  <si>
+    <t>iswalpha</t>
+  </si>
+  <si>
+    <t>iswblank</t>
+  </si>
+  <si>
+    <t>iswcntrl</t>
+  </si>
+  <si>
+    <t>iswctype</t>
+  </si>
+  <si>
+    <t>iswdigit</t>
+  </si>
+  <si>
+    <t>iswgraph</t>
+  </si>
+  <si>
+    <t>iswlower</t>
+  </si>
+  <si>
+    <t>iswprint</t>
+  </si>
+  <si>
+    <t>iswpunct</t>
+  </si>
+  <si>
+    <t>iswspace</t>
+  </si>
+  <si>
+    <t>iswupper</t>
+  </si>
+  <si>
+    <t>iswxdigit</t>
+  </si>
+  <si>
+    <t>towctrans</t>
+  </si>
+  <si>
+    <t>towlower</t>
+  </si>
+  <si>
+    <t>towupper</t>
+  </si>
+  <si>
+    <t>wctrans</t>
+  </si>
+  <si>
+    <t>wctype</t>
+  </si>
+  <si>
+    <t>int iswalnum( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자와 숫자 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 글자 또는 숫자 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswalpha( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 글자 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswblank( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 공백 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswcntrl( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 제어 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswctype( wint_t wc,  wctype_t charclass);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 종류를 위한 문자 시험.
+이 함수는 확장문자 wc가 charclass 문자 종류를 갖고 있는지 아닌지 시험한다. 만약, wc인자가 함수의 도메인내에 있지 않다면, 이 함수의 결과는 알 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswdigit( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10진수 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 숫자 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswgraph( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이는 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 그래프 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswlower( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문자 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 소문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswprint( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 가능한 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 출력 가능한 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswpunct( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구두점 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 구두점 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswspace( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여백 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 여백 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswupper( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문자 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 대문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iswxdigit( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16진수 확장문자 코드 시험.
+이 함수는 wc가 현재 로케일내의 16진수 문자를 나타내는 확장문자 코드인지 아닌지 시험한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int towctrans( wint_t wc,  wctrans_t desc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장문자 변환.
+이 함수는 desc로부터 서술된 매핑을 사용하여 확장문자 wc를 변한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int towlower( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문자 확장문자 코드를 소문자로 변경.
+이 함수의 인자가 대문자 확장문자 코드이고, 일부 소문자가 존재하면, 대문자는 소문자로 변경되고 소문자는 변경없이 처리된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int towupper( wint_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문자 확장문자 코드를 대문자로 변경.
+이 함수의 인자가 소문자 확장문자 코드이고, 일부 대문자가 존재하면, 소문자는 대문자로 변경되고 대문자는 변경 없이 처리된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wctrans_t wctrans( const char * charclass);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 매핑 정의.
+이 함수는 현재 로케일의 이름에 매핑되는 유효한 문자를 정의한다. charclass는 요구된 codeset-specific를 위해 이름과 매핑되는 문자 확인용 문자열이다.
+이 함수에 의해 반환되는 값은 LC_CTYPE 카테고리로 변경하기 위한 setlocale() 함수를 호출하기 전까지 유효하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wctype_t wctype( const char * property);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 종류 정의.
+이 함수는 유효한 문자 종류를 정의한다. 아래에는 모든 로케일에 정의될 문자 종류들이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;wchar.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 파일 &lt;wchar.h&gt;은 확장 문자 처리를 위한 자료형, 상수, 그리고 함수들을 정의한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btowc</t>
+  </si>
+  <si>
+    <t>한 바이트 문자를 확장 문자로 변환한다.</t>
+  </si>
+  <si>
+    <t>fgetwc</t>
+  </si>
+  <si>
+    <t>fgetws</t>
+  </si>
+  <si>
+    <t>스트림에서 확장 문자를 읽는다.</t>
+  </si>
+  <si>
+    <t>fputwc</t>
+  </si>
+  <si>
+    <t>스트림에 확장 문자를 쓴다.</t>
+  </si>
+  <si>
+    <t>fwide</t>
+  </si>
+  <si>
+    <t>스트림의 너비를 설정한다.</t>
+  </si>
+  <si>
+    <t>fwprintf</t>
+  </si>
+  <si>
+    <t>형식이 지정된 데이터를 출력한다.</t>
+  </si>
+  <si>
+    <t>fwscanf</t>
+  </si>
+  <si>
+    <t>형식 데이터를 읽는다.</t>
+  </si>
+  <si>
+    <t>getwc</t>
+  </si>
+  <si>
+    <t>스트림에서 확장 문자 하나를 읽는다.</t>
+  </si>
+  <si>
+    <t>getwchar</t>
+  </si>
+  <si>
+    <t>stdin에서 확장 문자 하나를 읽는다.</t>
+  </si>
+  <si>
+    <t>mbrlen</t>
+  </si>
+  <si>
+    <t>확장문자의 길이를 얻는다.</t>
+  </si>
+  <si>
+    <t>mbrtowc</t>
+  </si>
+  <si>
+    <t>문자를 확장문자로 변환한다.</t>
+  </si>
+  <si>
+    <t>mbsinit</t>
+  </si>
+  <si>
+    <t>확장문자 변환 상태 객체를 초기화한다.</t>
+  </si>
+  <si>
+    <t>mbsrtowcs</t>
+  </si>
+  <si>
+    <t>문자열을 확장문자열로 변환한다.</t>
+  </si>
+  <si>
+    <t>putwc</t>
+  </si>
+  <si>
+    <t>확장문자 하나를 스트림에 출력한다.</t>
+  </si>
+  <si>
+    <t>putwchar</t>
+  </si>
+  <si>
+    <t>확장문자를 stdout으로 출력한다.</t>
+  </si>
+  <si>
+    <t>swprintf</t>
+  </si>
+  <si>
+    <t>문자열에 형식이 지정된 데이터를 쓴다.</t>
+  </si>
+  <si>
+    <t>swscanf</t>
+  </si>
+  <si>
+    <t>문자열에서 형식 데이터를 읽는다.</t>
+  </si>
+  <si>
+    <t>ungetwc</t>
+  </si>
+  <si>
+    <t>스트림에 확장문자를 다시 넣는다.</t>
+  </si>
+  <si>
+    <t>vfwprintf</t>
+  </si>
+  <si>
+    <t>vfwscanf</t>
+  </si>
+  <si>
+    <t>vwprintf</t>
+  </si>
+  <si>
+    <t>vswprintf</t>
+  </si>
+  <si>
+    <t>vswscanf</t>
+  </si>
+  <si>
+    <t>wcrtomb</t>
+  </si>
+  <si>
+    <t>확장문자를 문자로 변환한다.</t>
+  </si>
+  <si>
+    <t>wcscat</t>
+  </si>
+  <si>
+    <t>확장문자열을 추가한다.</t>
+  </si>
+  <si>
+    <t>wcschr</t>
+  </si>
+  <si>
+    <t>확장문자열에서 확장문자를 찾는다.</t>
+  </si>
+  <si>
+    <t>wcscmp</t>
+  </si>
+  <si>
+    <t>두 확장문자를 비교한다.</t>
+  </si>
+  <si>
+    <t>wcscoll</t>
+  </si>
+  <si>
+    <t>두 확장문자열을 비교한다.</t>
+  </si>
+  <si>
+    <t>wcscpy</t>
+  </si>
+  <si>
+    <t>확장 문자열을 복사한다.</t>
+  </si>
+  <si>
+    <t>wcscspn</t>
+  </si>
+  <si>
+    <t>문자열에서 부분 문자열의 위치를 찾는다.</t>
+  </si>
+  <si>
+    <t>wcsftime</t>
+  </si>
+  <si>
+    <t>날짜와 시간을 확장 문자열로 변환한다.</t>
+  </si>
+  <si>
+    <t>wcslen</t>
+  </si>
+  <si>
+    <t>확장문자열의 길이를 얻는다.</t>
+  </si>
+  <si>
+    <t>wcsncat</t>
+  </si>
+  <si>
+    <t>wcsncmp</t>
+  </si>
+  <si>
+    <t>wcsncpy</t>
+  </si>
+  <si>
+    <t>wcspbrk</t>
+  </si>
+  <si>
+    <t>확장 문자열에서 확장 문자를 찾는다.</t>
+  </si>
+  <si>
+    <t>wcsrchr</t>
+  </si>
+  <si>
+    <t>wcsrtombs</t>
+  </si>
+  <si>
+    <t>wcsspn</t>
+  </si>
+  <si>
+    <t>문자열에서 일치하지 않는 첫 문자 위치를 찾는다.</t>
+  </si>
+  <si>
+    <t>wcsstr</t>
+  </si>
+  <si>
+    <t>부분 확장 문자열을 찾는다.</t>
+  </si>
+  <si>
+    <t>wcstod</t>
+  </si>
+  <si>
+    <t>확장 문자열을 double형으로 수로 변환한다.</t>
+  </si>
+  <si>
+    <t>확장 문자열을 float형으로 수로 변환한다.</t>
+  </si>
+  <si>
+    <t>wcstok</t>
+  </si>
+  <si>
+    <t>확장 문자열에서 문자 토큰을 찾는다.</t>
+  </si>
+  <si>
+    <t>wcstol</t>
+  </si>
+  <si>
+    <t>확장 문자열을 정수형으로 수로 변환한다.</t>
+  </si>
+  <si>
+    <t>wcstold</t>
+  </si>
+  <si>
+    <t>확장 문자열을 long double형으로 수로 변환한다.</t>
+  </si>
+  <si>
+    <t>wcstoll</t>
+  </si>
+  <si>
+    <t>확장 문자열을 long long형으로 수로 변환한다.</t>
+  </si>
+  <si>
+    <t>wcstoul</t>
+  </si>
+  <si>
+    <t>확장 문자열을 부호 없는 정수형으로 수로 변환한다.</t>
+  </si>
+  <si>
+    <t>wcstoull</t>
+  </si>
+  <si>
+    <t>wcsxfrm</t>
+  </si>
+  <si>
+    <t>확장 문자열을 변환한다.</t>
+  </si>
+  <si>
+    <t>wmemchr</t>
+  </si>
+  <si>
+    <t>확장 문자를 한 바이트 문자로 변환한다.</t>
+  </si>
+  <si>
+    <t>wmemcmp</t>
+  </si>
+  <si>
+    <t>확장 문자 버퍼를 비교한다.</t>
+  </si>
+  <si>
+    <t>wmemcpy</t>
+  </si>
+  <si>
+    <t>확장 문자 버퍼를 복사한다.</t>
+  </si>
+  <si>
+    <t>wmemmove</t>
+  </si>
+  <si>
+    <t>wmemset</t>
+  </si>
+  <si>
+    <t>버퍼를 설정한다.</t>
+  </si>
+  <si>
+    <t>wprintf</t>
+  </si>
+  <si>
+    <t>wscanf</t>
+  </si>
+  <si>
+    <t>wint_t btowc( int c);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wint_t fgetwc( FILE *stream);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *fgetws( wchar_t *restrict buf,  int n,  FILE *restrict stream);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wint_t *fputwc( wchar_t wc,  FILE *stream);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wint_t *fwide( FILE *stream,  int mode);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int fwprintf( FILE *restrict stream,  const wchar_t *restrict format,  ...);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int fwscanf( FILE *restrict stream,  const wchar_t *restrict format,  ...);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wint_t getwc( FILE *stream);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wint_t getwchar( void);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>size_t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>mbrlen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const char *restrict </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, size_t </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, mbstate_t *restrict </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t mbrtowc( wchar_t *restrict pwc,  const char *restrict s,  size_t n,  mbstate_t *restrict ps);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int mbsinit( const mbstate_t *ps);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t mbsrtowcs( wchar_t *restrict dst,  const char *restrict src,  size_t len,  mbstate_t *restrict ps);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wint_t putwchar( wchar_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int swprintf( wchar_t *restrict ws,  size_t n,  wchar_t *restrict format,  ...);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int swscanf( const wchar_t *restrict ws,  const wchar_t *restrict format,  ...);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wint_t ungetwc( wint_t wc,  FILE *stream);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int vfwprintf( FILE *restrict stream,  const wchar_t *restrict format,  va_list arg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int vfwscanf( FILE *restrict vfwscanf,  const wchar_t *restrict format,  va_list arg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int vwprintf( const wchar_t *restrict format,  va_list arg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int vswprintf( const wchar_t *restrict format,  va_list arg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>vswscanf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const wchar_t *restrict </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, va_list </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>arg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int vwscanf( const wchar_t *restrict format,  va_list arg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t wcrtomb( char *restrict s,  wchar_t wc,  mbstate_t *restrict ps);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wcscat( wchar_t *restrict ws1,  const wchar_t *restrict ws2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wcschr( wchar_t *ws,  wchar_t wc);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int *wcsncmp( const wchar_t *ws1,  const wchar_t ws2,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int *wcscoll( const wchar_t *ws1,  const wchar_t ws2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wcscpy( const wchar_t *ws1,  const wchar_t ws2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int *wcscspn( const wchar_t *ws1,  const wchar_t ws2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t wcsftime( wchar_t *restrict wcs,  size_t maxsize,  const wchar_t *restrict format,  const struct tm *restrict timeptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t wcslen( const wchar_t *ws);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wcsncat( wchar_t *restrict ws1,  const wchar_t *restrict ws2,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int *wcsncpy( const wchar_t *ws1,  const wchar_t ws2,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wcspbrk( const wchar_t *ws1,  const wchar_t ws2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t wcsrtombs( char *restrict s,  wchar_t wc,  mbstate_t *restrict ps);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t *wcsspn( const wchar_t *ws1,  const wchar_t ws2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wcsstr( const wchar_t *ws1,  const wchar_t ws2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double wcstod( const wchar_t *restrict nptr,  const wchar_t *restrict endptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float wcstof( const wchar_t *restrict nptr,  const wchar_t *restrict endptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t wcstok( wchar_t *restrict ws1,  wchar_t *restrict ws2,  wchar_t **restrict ptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long wcstol( const wchar_t *restrict nptr,  const wchar_t *restrict endptr,  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long double wcstold( const wchar_t *restrict nptr,  const wchar_t *restrict endptr);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long double wcstoll( const wchar_t *restrict nptr,  const wchar_t *restrict endptr,  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long wcstoul( const wchar_t *restrict nptr,  const wchar_t *restrict endptr,  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long long wcstoull( const wchar_t *restrict nptr,  const wchar_t *restrict endptr,  int base);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_t wcsxfrm( wchar_t *restrict ws1,  wchar_t *restrict ws2,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wmemchr( const wchar_t *ws,  wchar_t wc,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int wmemcmp( const wchar_t *ws1,  const wchar_t *ws2,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wmemcpy( wchar_t *ws1,  const wchar_t *ws2,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t *wmemmove( wchar_t *ws1,  const wchar_t *ws2,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t wmemmove( wchar_t *ws,  wchar_t wc,  size_t n);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int wprintf( const wchar_t *restrict format,  ...);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int wscanf( const wchar_t *restrict format,  ...);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +2699,62 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,17 +2774,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -712,13 +3088,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1087,8 +3463,1954 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>284</v>
+      </c>
+      <c r="B100" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>287</v>
+      </c>
+      <c r="B103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>288</v>
+      </c>
+      <c r="B104" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>290</v>
+      </c>
+      <c r="B106" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>330</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D110" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>334</v>
+      </c>
+      <c r="B111" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D111" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D112" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" t="s">
+        <v>330</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D113" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114" t="s">
+        <v>330</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D114" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D115" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D116" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" t="s">
+        <v>330</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>349</v>
+      </c>
+      <c r="B119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D119" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>351</v>
+      </c>
+      <c r="B120" t="s">
+        <v>330</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D120" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" t="s">
+        <v>330</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D121" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>355</v>
+      </c>
+      <c r="B122" t="s">
+        <v>330</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D122" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" t="s">
+        <v>330</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D123" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" t="s">
+        <v>330</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D124" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D125" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>363</v>
+      </c>
+      <c r="B126" t="s">
+        <v>330</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D126" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D127" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>367</v>
+      </c>
+      <c r="B128" t="s">
+        <v>330</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D128" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>368</v>
+      </c>
+      <c r="B129" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>369</v>
+      </c>
+      <c r="B130" t="s">
+        <v>330</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D130" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>370</v>
+      </c>
+      <c r="B131" t="s">
+        <v>330</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D131" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" t="s">
+        <v>330</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D132" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D133" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D134" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>374</v>
+      </c>
+      <c r="B135" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>376</v>
+      </c>
+      <c r="B136" t="s">
+        <v>330</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D136" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>378</v>
+      </c>
+      <c r="B137" t="s">
+        <v>330</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D137" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>380</v>
+      </c>
+      <c r="B138" t="s">
+        <v>330</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D138" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>382</v>
+      </c>
+      <c r="B139" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D139" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>384</v>
+      </c>
+      <c r="B140" t="s">
+        <v>330</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D140" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>386</v>
+      </c>
+      <c r="B141" t="s">
+        <v>330</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D141" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>388</v>
+      </c>
+      <c r="B142" t="s">
+        <v>330</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D142" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>390</v>
+      </c>
+      <c r="B143" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D143" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D144" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>392</v>
+      </c>
+      <c r="B145" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D145" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>393</v>
+      </c>
+      <c r="B146" t="s">
+        <v>330</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D146" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>395</v>
+      </c>
+      <c r="B147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D147" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>396</v>
+      </c>
+      <c r="B148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D148" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>397</v>
+      </c>
+      <c r="B149" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D149" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>399</v>
+      </c>
+      <c r="B150" t="s">
+        <v>330</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D150" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>401</v>
+      </c>
+      <c r="B151" t="s">
+        <v>330</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D151" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D152" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>404</v>
+      </c>
+      <c r="B153" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D153" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>406</v>
+      </c>
+      <c r="B154" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D154" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>408</v>
+      </c>
+      <c r="B155" t="s">
+        <v>330</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D155" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>410</v>
+      </c>
+      <c r="B156" t="s">
+        <v>330</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D156" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>412</v>
+      </c>
+      <c r="B157" t="s">
+        <v>330</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D157" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>414</v>
+      </c>
+      <c r="B158" t="s">
+        <v>330</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D158" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>415</v>
+      </c>
+      <c r="B159" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D159" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>417</v>
+      </c>
+      <c r="B160" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D160" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" t="s">
+        <v>330</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D161" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>421</v>
+      </c>
+      <c r="B162" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D162" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>423</v>
+      </c>
+      <c r="B163" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D163" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>424</v>
+      </c>
+      <c r="B164" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D164" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>426</v>
+      </c>
+      <c r="B165" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D165" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>427</v>
+      </c>
+      <c r="B166" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D166" t="s">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1098,21 +5420,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
